--- a/src/test/resources/ExcelTestData/AddBatchModule.xlsx
+++ b/src/test/resources/ExcelTestData/AddBatchModule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subas\EclipseLMSPractice\Team15_SeleniumTribe_LMSUIHackathon_Apr24\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A9D68F-C1DA-4ED9-A670-F4677E252CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89059E2-3F37-4A6A-BC2A-77E5918C8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{935A3F96-FF7B-4344-8DBC-4AB257648386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{935A3F96-FF7B-4344-8DBC-4AB257648386}"/>
   </bookViews>
   <sheets>
     <sheet name="AddBatch" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,89 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>S.no</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>NoOfClasses</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>SeleniumProgram</t>
+  </si>
+  <si>
+    <t>BatchTribe</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>InvalidValues</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>number of classes</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Batch Name is required. This field should start with an alphabet and min 2 character</t>
+  </si>
+  <si>
+    <t>Number of classes is required</t>
+  </si>
+  <si>
+    <t>Batch Description is required.This field should start with an alphabet and min 2 character.</t>
+  </si>
+  <si>
+    <t>Program Name is required</t>
+  </si>
+  <si>
+    <t>Admin enters any of the Program Name with invalid values</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +482,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90273CE1-256D-4D00-BB28-CAB5D5AD9851}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/ExcelTestData/AddBatchModule.xlsx
+++ b/src/test/resources/ExcelTestData/AddBatchModule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subas\EclipseLMSPractice\Team15_SeleniumTribe_LMSUIHackathon_Apr24\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89059E2-3F37-4A6A-BC2A-77E5918C8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB200BA-48ED-4088-98E2-5F1D2EF946B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{935A3F96-FF7B-4344-8DBC-4AB257648386}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>S.no</t>
   </si>
@@ -65,41 +65,44 @@
     <t>InvalidValues</t>
   </si>
   <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>number of classes</t>
-  </si>
-  <si>
-    <t>Program Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Batch Name is required. This field should start with an alphabet and min 2 character</t>
-  </si>
-  <si>
-    <t>Number of classes is required</t>
-  </si>
-  <si>
-    <t>Batch Description is required.This field should start with an alphabet and min 2 character.</t>
-  </si>
-  <si>
-    <t>Program Name is required</t>
-  </si>
-  <si>
-    <t>Admin enters any of the Program Name with invalid values</t>
+    <t>!@3</t>
+  </si>
+  <si>
+    <t>batchField</t>
+  </si>
+  <si>
+    <t>descriptionField</t>
+  </si>
+  <si>
+    <t>programField</t>
+  </si>
+  <si>
+    <t>radioBtn</t>
+  </si>
+  <si>
+    <t>errorMsg</t>
+  </si>
+  <si>
+    <t>Batch Description is required.</t>
+  </si>
+  <si>
+    <t>Program Name is required.</t>
+  </si>
+  <si>
+    <t>Number of classes is required.</t>
+  </si>
+  <si>
+    <t>Status is required.</t>
+  </si>
+  <si>
+    <t>Batch Name is required.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +122,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,19 +148,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,7 +503,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,9 +511,9 @@
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -512,13 +530,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -534,11 +552,14 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -554,38 +575,41 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>2</v>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{AF1848F6-F07E-49A1-AF9C-A2781106F7A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/ExcelTestData/AddBatchModule.xlsx
+++ b/src/test/resources/ExcelTestData/AddBatchModule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subas\EclipseLMSPractice\Team15_SeleniumTribe_LMSUIHackathon_Apr24\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB200BA-48ED-4088-98E2-5F1D2EF946B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10641E4-A809-4854-B8A8-840B3C7D7A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{935A3F96-FF7B-4344-8DBC-4AB257648386}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>S.no</t>
   </si>
@@ -96,6 +96,36 @@
   </si>
   <si>
     <t>Batch Name is required.</t>
+  </si>
+  <si>
+    <t>TableHeader</t>
+  </si>
+  <si>
+    <t>Batch Description</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Batch Status</t>
+  </si>
+  <si>
+    <t>No Of Classes</t>
+  </si>
+  <si>
+    <t>Batch Name</t>
+  </si>
+  <si>
+    <t>Edit / Delete</t>
+  </si>
+  <si>
+    <t>UpdateBatchDescription</t>
+  </si>
+  <si>
+    <t>UpdateNoofClasses</t>
+  </si>
+  <si>
+    <t>Updated Description</t>
   </si>
 </sst>
 </file>
@@ -152,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -164,7 +194,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,23 +529,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90273CE1-256D-4D00-BB28-CAB5D5AD9851}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,16 +561,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -552,17 +592,26 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -575,40 +624,57 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F6" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{AF1848F6-F07E-49A1-AF9C-A2781106F7A1}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{AF1848F6-F07E-49A1-AF9C-A2781106F7A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelTestData/AddBatchModule.xlsx
+++ b/src/test/resources/ExcelTestData/AddBatchModule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subas\EclipseLMSPractice\Team15_SeleniumTribe_LMSUIHackathon_Apr24\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10641E4-A809-4854-B8A8-840B3C7D7A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26BC216-2D97-41AB-A219-3418650827DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{935A3F96-FF7B-4344-8DBC-4AB257648386}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>S.no</t>
   </si>
@@ -65,9 +65,6 @@
     <t>InvalidValues</t>
   </si>
   <si>
-    <t>!@3</t>
-  </si>
-  <si>
     <t>batchField</t>
   </si>
   <si>
@@ -126,13 +123,28 @@
   </si>
   <si>
     <t>Updated Description</t>
+  </si>
+  <si>
+    <t>!@3*&amp;Invalid</t>
+  </si>
+  <si>
+    <t>This field should start with an alphabet and min 2 character.</t>
+  </si>
+  <si>
+    <t>errormsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Invalid without optionaldesc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +172,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -194,6 +213,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90273CE1-256D-4D00-BB28-CAB5D5AD9851}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,9 +570,10 @@
     <col min="8" max="8" width="34.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="33.5546875" customWidth="1"/>
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,10 +587,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -573,13 +599,16 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -596,22 +625,25 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -624,52 +656,64 @@
       <c r="D3">
         <v>3</v>
       </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
       <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
+      <c r="J4" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelTestData/AddBatchModule.xlsx
+++ b/src/test/resources/ExcelTestData/AddBatchModule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subas\EclipseLMSPractice\Team15_SeleniumTribe_LMSUIHackathon_Apr24\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26BC216-2D97-41AB-A219-3418650827DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80A6925-F5C4-4D28-91EA-5D51C437CB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{935A3F96-FF7B-4344-8DBC-4AB257648386}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{935A3F96-FF7B-4344-8DBC-4AB257648386}"/>
   </bookViews>
   <sheets>
     <sheet name="AddBatch" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,21 +174,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,12 +235,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -212,19 +333,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -554,17 +734,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90273CE1-256D-4D00-BB28-CAB5D5AD9851}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="34.33203125" style="1" customWidth="1"/>
@@ -574,60 +755,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="17" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -636,27 +817,29 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -665,24 +848,28 @@
       <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12">
         <v>3</v>
       </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -690,33 +877,64 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="16"/>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J7" t="s">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+      <c r="H12"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+      <c r="H20"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H1:I7">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K2 J3:J7">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{AF1848F6-F07E-49A1-AF9C-A2781106F7A1}"/>
   </hyperlinks>
